--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_40.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_40.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,336 +488,335 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
-        </is>
+          <t>isophonics_140</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_155</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3785714285714286</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>[['G', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G'], ['C', 'G', 'C', 'G', 'C', 'G', 'C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(36.6, 39.0)]</t>
+          <t>[['Ab', 'Db/5', 'Ab', 'Db/5', 'Ab', 'Db/5', 'Ab', 'Db', 'Ab'], ['Db/5', 'Ab', 'Db/5', 'Ab', 'Db/5', 'Ab', 'Db', 'Ab', 'Db/5']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(35.14, 39.9)]</t>
+          <t>[('0:00:28.210155', '0:00:42.831033'), ('0:00:26.391305', '0:00:41.205636')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:04:21.828000', '0:04:46.942000'), ('0:04:24.615000', '0:04:49.808000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(40.08, 42.28)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(13.72, 22.2)]</t>
+          <t>[('0:01:04.300000', '0:01:05.720000'), ('0:01:02.480000', '0:01:04.920000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:01.640000', '0:00:09.940000'), ('0:00:59.220000', '0:01:06.880000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07728085867620751</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(0.56, 6.3)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(14.52, 28.3)]</t>
+          <t>[('0:01:37.620000', '0:01:53.780000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:11.940000', '0:00:17.600000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1136044880785414</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(1.36, 4.74)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[('0:01:20.920000', '0:01:29.040000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
+          <t>[('0:01:06.740000', '0:01:13.840000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.06153846153846154</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
+          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14)]</t>
+          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(35.82, 37.76)]</t>
+          <t>[('0:01:39.600000', '0:01:51.620000'), ('0:00:46.520000', '0:00:48.940000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:25.480000', '0:00:32.580000'), ('0:01:14.100000', '0:01:20.040000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_75</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_139</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(3.66, 7.56)]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(40.46, 43.62)]</t>
+          <t>[('0:00:47.060000', '0:00:59.980000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:00.660000', '0:00:08.220000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
-        </is>
+          <t>isophonics_156</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5882352941176471</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(34.86, 42.08)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(103.42, 115.04)]</t>
+          <t>[('0:00:11.070127', '0:00:13.723731')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -821,65 +825,75 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(77.72, 95.68)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(16.04, 21.0)]</t>
+          <t>[('0:00:19.140000', '0:00:24.780000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:01.300000', '0:01:10.460000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1001011122345804</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['C:7', 'F:min', 'F:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(10.76, 23.6), (62.86, 68.74)]</t>
+          <t>[['F:7', 'A#:min', 'A#:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(12.78, 16.74), (30.02, 32.12)]</t>
+          <t>[('0:00:03.780000', '0:00:07.380000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:16.260000', '0:00:21.140000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
@@ -888,317 +902,278 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D#:7', 'G#:maj/D#', 'D#:7', 'G#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_67</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_120</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(108.54, 120.72)]</t>
+          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D', 'D#:min', 'C:hdim7', 'A#:min', 'B:maj', 'F#:maj/A#', 'F:7', 'F#:maj'], ['A#:7/G#', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min', 'A#:min/F']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(93.3, 103.06)]</t>
+          <t>[('0:00:00.300000', '0:00:10.760000'), ('0:01:26.280000', '0:01:35.680000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:02.600000', '0:00:10.700000'), ('0:01:12.880000', '0:01:20.600000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_261</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.19375</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:7', 'C:maj']]</t>
+          <t>[['E:7', 'A:min', 'D:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(32.98, 35.26)]</t>
+          <t>[['D:7', 'G:min', 'C:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(38.9, 44.36)]</t>
+          <t>[('0:00:53.460000', '0:01:01.800000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:01:00.854263', '0:01:06.566371')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'F:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(13.42, 17.82), (32.44, 34.8)]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(12.74, 26.98), (71.7, 78.4)]</t>
+          <t>[('0:01:24.620000', '0:01:31.740000'), ('0:00:15.600000', '0:00:24.080000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:08.200000', '0:00:12.660000'), ('0:00:00.780000', '0:00:05.260000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_124</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_25</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(0.3, 4.8)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(13.42, 26.46)]</t>
+          <t>[('0:00:18.380000', '0:01:02.360000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:14.580000', '0:00:55.620000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min'], ['D#:maj/A#', 'A#:7', 'D#:min/A#'], ['D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_58</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_69</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(36.18, 37.98), (35.88, 37.42), (9.1, 13.86)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(12.54, 25.94), (52.42, 61.26), (1.54, 6.88)]</t>
+          <t>[('0:01:18.320000', '0:01:39.600000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:01:30.780000', '0:01:53.600000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_204</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_24</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(32.44, 34.8)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(35.22, 40.0)]</t>
+          <t>[('0:00:43.100000', '0:00:47.740000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(23.42, 33.96)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(46.06, 55.66)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:51.700000', '0:00:57.700000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
